--- a/biology/Zoologie/Ennominae/Ennominae.xlsx
+++ b/biology/Zoologie/Ennominae/Ennominae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ennominae sont une sous-famille de lépidoptères (papillons) de la famille des Geometridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Abraxini
@@ -569,9 +583,11 @@
           <t>Principaux genres et espèces d'Europe (à compléter)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Abraxas
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abraxas
 Abraxas grossulariata - la Zérène du groseillier
 Abraxas pantaria
 Abraxas sylvata - la Zérène de l'orme
@@ -757,8 +773,43 @@
 	Cleora cinctaria , des Cleora, des Boarmiini, des Ennominae
 			... de profil
 			... de dos
-Autres
-Amelora
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ennominae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ennominae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principaux genres et espèces d'Europe (à compléter)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amelora
 Epimecis
 Epimecis hortaria (Amérique du Nord)
 Mnesampela
